--- a/natmiOut/OldD4/LR-pairs_lrc2p/Alcam-L1cam.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Alcam-L1cam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>L1cam</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.872583963202693</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H2">
-        <v>0.872583963202693</v>
+        <v>0.344416</v>
       </c>
       <c r="I2">
-        <v>0.0132789799571853</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J2">
-        <v>0.0132789799571853</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="N2">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="O2">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="P2">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="Q2">
-        <v>6.889622472323909</v>
+        <v>0.9721051286471112</v>
       </c>
       <c r="R2">
-        <v>6.889622472323909</v>
+        <v>8.748946157824001</v>
       </c>
       <c r="S2">
-        <v>0.003639545720993214</v>
+        <v>0.0004009837635647273</v>
       </c>
       <c r="T2">
-        <v>0.003639545720993214</v>
+        <v>0.0004616609434258129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.872583963202693</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H3">
-        <v>0.872583963202693</v>
+        <v>0.344416</v>
       </c>
       <c r="I3">
-        <v>0.0132789799571853</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J3">
-        <v>0.0132789799571853</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="N3">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="O3">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="P3">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="Q3">
-        <v>0.2680601136777942</v>
+        <v>0.03838485705244444</v>
       </c>
       <c r="R3">
-        <v>0.2680601136777942</v>
+        <v>0.345463713472</v>
       </c>
       <c r="S3">
-        <v>0.0001416067489364028</v>
+        <v>1.583337438637324E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001416067489364028</v>
+        <v>1.822929310614653E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.872583963202693</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H4">
-        <v>0.872583963202693</v>
+        <v>0.344416</v>
       </c>
       <c r="I4">
-        <v>0.0132789799571853</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J4">
-        <v>0.0132789799571853</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="N4">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="O4">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="P4">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="Q4">
-        <v>3.241604835558725</v>
+        <v>0.475297792039111</v>
       </c>
       <c r="R4">
-        <v>3.241604835558725</v>
+        <v>4.277680128352</v>
       </c>
       <c r="S4">
-        <v>0.001712426051761461</v>
+        <v>0.0001960556444456674</v>
       </c>
       <c r="T4">
-        <v>0.001712426051761461</v>
+        <v>0.0002257229394380008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.872583963202693</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H5">
-        <v>0.872583963202693</v>
+        <v>0.344416</v>
       </c>
       <c r="I5">
-        <v>0.0132789799571853</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J5">
-        <v>0.0132789799571853</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="N5">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="O5">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="P5">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="Q5">
-        <v>5.25773844475504</v>
+        <v>0.7222487327893333</v>
       </c>
       <c r="R5">
-        <v>5.25773844475504</v>
+        <v>6.500238595103999</v>
       </c>
       <c r="S5">
-        <v>0.002777478669633855</v>
+        <v>0.0002979204682386309</v>
       </c>
       <c r="T5">
-        <v>0.002777478669633855</v>
+        <v>0.0003430020288357752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.872583963202693</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H6">
-        <v>0.872583963202693</v>
+        <v>0.344416</v>
       </c>
       <c r="I6">
-        <v>0.0132789799571853</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J6">
-        <v>0.0132789799571853</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="N6">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="O6">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="P6">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="Q6">
-        <v>9.479946090062711</v>
+        <v>1.349570216490666</v>
       </c>
       <c r="R6">
-        <v>9.479946090062711</v>
+        <v>8.097421298943999</v>
       </c>
       <c r="S6">
-        <v>0.005007922765860367</v>
+        <v>0.0005566843838756651</v>
       </c>
       <c r="T6">
-        <v>0.005007922765860367</v>
+        <v>0.0004272815363989532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.0474994819281</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H7">
-        <v>25.0474994819281</v>
+        <v>3.291067</v>
       </c>
       <c r="I7">
-        <v>0.3811727668903667</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="J7">
-        <v>0.3811727668903667</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="N7">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="O7">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="P7">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="Q7">
-        <v>197.7664300325073</v>
+        <v>9.288950308409779</v>
       </c>
       <c r="R7">
-        <v>197.7664300325073</v>
+        <v>83.600552775688</v>
       </c>
       <c r="S7">
-        <v>0.1044730632298536</v>
+        <v>0.003831600250289407</v>
       </c>
       <c r="T7">
-        <v>0.1044730632298536</v>
+        <v>0.004411401026948689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.0474994819281</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H8">
-        <v>25.0474994819281</v>
+        <v>3.291067</v>
       </c>
       <c r="I8">
-        <v>0.3811727668903667</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="J8">
-        <v>0.3811727668903667</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="N8">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="O8">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="P8">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="Q8">
-        <v>7.694658441608884</v>
+        <v>0.3667864917571111</v>
       </c>
       <c r="R8">
-        <v>7.694658441608884</v>
+        <v>3.301078425814</v>
       </c>
       <c r="S8">
-        <v>0.004064817966174518</v>
+        <v>0.0001512958049034837</v>
       </c>
       <c r="T8">
-        <v>0.004064817966174518</v>
+        <v>0.0001741900056181082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.0474994819281</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H9">
-        <v>25.0474994819281</v>
+        <v>3.291067</v>
       </c>
       <c r="I9">
-        <v>0.3811727668903667</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="J9">
-        <v>0.3811727668903667</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="N9">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="O9">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="P9">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="Q9">
-        <v>93.05018068549144</v>
+        <v>4.541707930388777</v>
       </c>
       <c r="R9">
-        <v>93.05018068549144</v>
+        <v>40.875371373499</v>
       </c>
       <c r="S9">
-        <v>0.04915514432205073</v>
+        <v>0.001873409660407384</v>
       </c>
       <c r="T9">
-        <v>0.04915514432205073</v>
+        <v>0.002156895490126483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.0474994819281</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H10">
-        <v>25.0474994819281</v>
+        <v>3.291067</v>
       </c>
       <c r="I10">
-        <v>0.3811727668903667</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="J10">
-        <v>0.3811727668903667</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="N10">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="O10">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="P10">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="Q10">
-        <v>150.9232423751572</v>
+        <v>6.901447581630333</v>
       </c>
       <c r="R10">
-        <v>150.9232423751572</v>
+        <v>62.113028234673</v>
       </c>
       <c r="S10">
-        <v>0.07972745142298716</v>
+        <v>0.002846778958134077</v>
       </c>
       <c r="T10">
-        <v>0.07972745142298716</v>
+        <v>0.003277555798901527</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.0474994819281</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H11">
-        <v>25.0474994819281</v>
+        <v>3.291067</v>
       </c>
       <c r="I11">
-        <v>0.3811727668903667</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="J11">
-        <v>0.3811727668903667</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="N11">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="O11">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="P11">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="Q11">
-        <v>272.1216006629667</v>
+        <v>12.89581785885466</v>
       </c>
       <c r="R11">
-        <v>272.1216006629667</v>
+        <v>77.37490715312799</v>
       </c>
       <c r="S11">
-        <v>0.1437522899493007</v>
+        <v>0.005319397487888291</v>
       </c>
       <c r="T11">
-        <v>0.1437522899493007</v>
+        <v>0.004082888611887641</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.656137263289</v>
+        <v>29.088399</v>
       </c>
       <c r="H12">
-        <v>38.656137263289</v>
+        <v>87.265197</v>
       </c>
       <c r="I12">
-        <v>0.5882689730594789</v>
+        <v>0.3718170028938899</v>
       </c>
       <c r="J12">
-        <v>0.5882689730594789</v>
+        <v>0.3739501645477712</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="N12">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="O12">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="P12">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="Q12">
-        <v>305.2155474011714</v>
+        <v>246.303730245112</v>
       </c>
       <c r="R12">
-        <v>305.2155474011714</v>
+        <v>2216.733572206008</v>
       </c>
       <c r="S12">
-        <v>0.1612346603876889</v>
+        <v>0.1015978558524498</v>
       </c>
       <c r="T12">
-        <v>0.1612346603876889</v>
+        <v>0.11697172365761</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.656137263289</v>
+        <v>29.088399</v>
       </c>
       <c r="H13">
-        <v>38.656137263289</v>
+        <v>87.265197</v>
       </c>
       <c r="I13">
-        <v>0.5882689730594789</v>
+        <v>0.3718170028938899</v>
       </c>
       <c r="J13">
-        <v>0.5882689730594789</v>
+        <v>0.3739501645477712</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="N13">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="O13">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="P13">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="Q13">
-        <v>11.87526815311712</v>
+        <v>9.725628636586</v>
       </c>
       <c r="R13">
-        <v>11.87526815311712</v>
+        <v>87.530657729274</v>
       </c>
       <c r="S13">
-        <v>0.00627328733409479</v>
+        <v>0.004011725747356729</v>
       </c>
       <c r="T13">
-        <v>0.00627328733409479</v>
+        <v>0.00461878325652298</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.656137263289</v>
+        <v>29.088399</v>
       </c>
       <c r="H14">
-        <v>38.656137263289</v>
+        <v>87.265197</v>
       </c>
       <c r="I14">
-        <v>0.5882689730594789</v>
+        <v>0.3718170028938899</v>
       </c>
       <c r="J14">
-        <v>0.5882689730594789</v>
+        <v>0.3739501645477712</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="N14">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="O14">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="P14">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="Q14">
-        <v>143.6055746621504</v>
+        <v>120.426912384901</v>
       </c>
       <c r="R14">
-        <v>143.6055746621504</v>
+        <v>1083.842211464109</v>
       </c>
       <c r="S14">
-        <v>0.07586178442606378</v>
+        <v>0.04967491183775761</v>
       </c>
       <c r="T14">
-        <v>0.07586178442606378</v>
+        <v>0.05719175873791057</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.656137263289</v>
+        <v>29.088399</v>
       </c>
       <c r="H15">
-        <v>38.656137263289</v>
+        <v>87.265197</v>
       </c>
       <c r="I15">
-        <v>0.5882689730594789</v>
+        <v>0.3718170028938899</v>
       </c>
       <c r="J15">
-        <v>0.5882689730594789</v>
+        <v>0.3739501645477712</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="N15">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="O15">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="P15">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="Q15">
-        <v>232.9218362768728</v>
+        <v>182.997241562127</v>
       </c>
       <c r="R15">
-        <v>232.9218362768728</v>
+        <v>1646.975174059143</v>
       </c>
       <c r="S15">
-        <v>0.123044430366506</v>
+        <v>0.07548455458276145</v>
       </c>
       <c r="T15">
-        <v>0.123044430366506</v>
+        <v>0.08690693701150239</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.656137263289</v>
+        <v>29.088399</v>
       </c>
       <c r="H16">
-        <v>38.656137263289</v>
+        <v>87.265197</v>
       </c>
       <c r="I16">
-        <v>0.5882689730594789</v>
+        <v>0.3718170028938899</v>
       </c>
       <c r="J16">
-        <v>0.5882689730594789</v>
+        <v>0.3739501645477712</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="N16">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="O16">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="P16">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="Q16">
-        <v>419.9688657593621</v>
+        <v>341.9426240575079</v>
       </c>
       <c r="R16">
-        <v>419.9688657593621</v>
+        <v>2051.655744345048</v>
       </c>
       <c r="S16">
-        <v>0.2218548105451255</v>
+        <v>0.1410479548735643</v>
       </c>
       <c r="T16">
-        <v>0.2218548105451255</v>
+        <v>0.1082609618842253</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.13545036994005</v>
+        <v>46.59406033333334</v>
       </c>
       <c r="H17">
-        <v>1.13545036994005</v>
+        <v>139.782181</v>
       </c>
       <c r="I17">
-        <v>0.01727928009296931</v>
+        <v>0.5955798346205676</v>
       </c>
       <c r="J17">
-        <v>0.01727928009296931</v>
+        <v>0.5989967522309764</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="N17">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="O17">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="P17">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="Q17">
-        <v>8.965125093790311</v>
+        <v>394.5315404730872</v>
       </c>
       <c r="R17">
-        <v>8.965125093790311</v>
+        <v>3550.783864257784</v>
       </c>
       <c r="S17">
-        <v>0.004735960904149145</v>
+        <v>0.1627403634461405</v>
       </c>
       <c r="T17">
-        <v>0.004735960904149145</v>
+        <v>0.1873663638001073</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.13545036994005</v>
+        <v>46.59406033333334</v>
       </c>
       <c r="H18">
-        <v>1.13545036994005</v>
+        <v>139.782181</v>
       </c>
       <c r="I18">
-        <v>0.01727928009296931</v>
+        <v>0.5955798346205676</v>
       </c>
       <c r="J18">
-        <v>0.01727928009296931</v>
+        <v>0.5989967522309764</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="N18">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="O18">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="P18">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="Q18">
-        <v>0.3488133727836129</v>
+        <v>15.57859982162245</v>
       </c>
       <c r="R18">
-        <v>0.3488133727836129</v>
+        <v>140.207398394602</v>
       </c>
       <c r="S18">
-        <v>0.0001842658612194743</v>
+        <v>0.006426018548257889</v>
       </c>
       <c r="T18">
-        <v>0.0001842658612194743</v>
+        <v>0.007398408751235212</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.13545036994005</v>
+        <v>46.59406033333334</v>
       </c>
       <c r="H19">
-        <v>1.13545036994005</v>
+        <v>139.782181</v>
       </c>
       <c r="I19">
-        <v>0.01727928009296931</v>
+        <v>0.5955798346205676</v>
       </c>
       <c r="J19">
-        <v>0.01727928009296931</v>
+        <v>0.5989967522309764</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="N19">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="O19">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="P19">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="Q19">
-        <v>4.218140104506622</v>
+        <v>192.9009163212841</v>
       </c>
       <c r="R19">
-        <v>4.218140104506622</v>
+        <v>1736.108246891557</v>
       </c>
       <c r="S19">
-        <v>0.00222829535719518</v>
+        <v>0.07956972259702202</v>
       </c>
       <c r="T19">
-        <v>0.00222829535719518</v>
+        <v>0.09161027587677305</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.13545036994005</v>
+        <v>46.59406033333334</v>
       </c>
       <c r="H20">
-        <v>1.13545036994005</v>
+        <v>139.782181</v>
       </c>
       <c r="I20">
-        <v>0.01727928009296931</v>
+        <v>0.5955798346205676</v>
       </c>
       <c r="J20">
-        <v>0.01727928009296931</v>
+        <v>0.5989967522309764</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="N20">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="O20">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="P20">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="Q20">
-        <v>6.841635090603173</v>
+        <v>293.1266349234044</v>
       </c>
       <c r="R20">
-        <v>6.841635090603173</v>
+        <v>2638.139714310639</v>
       </c>
       <c r="S20">
-        <v>0.003614195671624767</v>
+        <v>0.1209118415373765</v>
       </c>
       <c r="T20">
-        <v>0.003614195671624767</v>
+        <v>0.1392083169135277</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>46.59406033333334</v>
+      </c>
+      <c r="H21">
+        <v>139.782181</v>
+      </c>
+      <c r="I21">
+        <v>0.5955798346205676</v>
+      </c>
+      <c r="J21">
+        <v>0.5989967522309764</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.755292</v>
+      </c>
+      <c r="N21">
+        <v>23.510584</v>
+      </c>
+      <c r="O21">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="P21">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="Q21">
+        <v>547.7267846839507</v>
+      </c>
+      <c r="R21">
+        <v>3286.360708103704</v>
+      </c>
+      <c r="S21">
+        <v>0.2259318884917707</v>
+      </c>
+      <c r="T21">
+        <v>0.1734133868893332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.338819</v>
+      </c>
+      <c r="H22">
+        <v>2.677638</v>
+      </c>
+      <c r="I22">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J22">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.467421333333334</v>
+      </c>
+      <c r="N22">
+        <v>25.402264</v>
+      </c>
+      <c r="O22">
+        <v>0.2732469334691616</v>
+      </c>
+      <c r="P22">
+        <v>0.312800300005396</v>
+      </c>
+      <c r="Q22">
+        <v>11.336344562072</v>
+      </c>
+      <c r="R22">
+        <v>68.018067372432</v>
+      </c>
+      <c r="S22">
+        <v>0.004676130156717149</v>
+      </c>
+      <c r="T22">
+        <v>0.00358915057730421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.338819</v>
+      </c>
+      <c r="H23">
+        <v>2.677638</v>
+      </c>
+      <c r="I23">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J23">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3343473333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.003042</v>
+      </c>
+      <c r="O23">
+        <v>0.01078951666043526</v>
+      </c>
+      <c r="P23">
+        <v>0.01235133366529898</v>
+      </c>
+      <c r="Q23">
+        <v>0.447630562466</v>
+      </c>
+      <c r="R23">
+        <v>2.685783374796</v>
+      </c>
+      <c r="S23">
+        <v>0.0001846431855307811</v>
+      </c>
+      <c r="T23">
+        <v>0.0001417223588165358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.338819</v>
+      </c>
+      <c r="H24">
+        <v>2.677638</v>
+      </c>
+      <c r="I24">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J24">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.140032333333333</v>
+      </c>
+      <c r="N24">
+        <v>12.420097</v>
+      </c>
+      <c r="O24">
+        <v>0.1336004309946363</v>
+      </c>
+      <c r="P24">
+        <v>0.1529395201819853</v>
+      </c>
+      <c r="Q24">
+        <v>5.542753948481</v>
+      </c>
+      <c r="R24">
+        <v>33.256523690886</v>
+      </c>
+      <c r="S24">
+        <v>0.002286331255003577</v>
+      </c>
+      <c r="T24">
+        <v>0.001754867137737183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.13545036994005</v>
-      </c>
-      <c r="H21">
-        <v>1.13545036994005</v>
-      </c>
-      <c r="I21">
-        <v>0.01727928009296931</v>
-      </c>
-      <c r="J21">
-        <v>0.01727928009296931</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>10.8642222294207</v>
-      </c>
-      <c r="N21">
-        <v>10.8642222294207</v>
-      </c>
-      <c r="O21">
-        <v>0.3771315855590672</v>
-      </c>
-      <c r="P21">
-        <v>0.3771315855590672</v>
-      </c>
-      <c r="Q21">
-        <v>12.33578514950665</v>
-      </c>
-      <c r="R21">
-        <v>12.33578514950665</v>
-      </c>
-      <c r="S21">
-        <v>0.006516562298780742</v>
-      </c>
-      <c r="T21">
-        <v>0.006516562298780742</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.338819</v>
+      </c>
+      <c r="H25">
+        <v>2.677638</v>
+      </c>
+      <c r="I25">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J25">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.291073</v>
+      </c>
+      <c r="N25">
+        <v>18.873219</v>
+      </c>
+      <c r="O25">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="P25">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="Q25">
+        <v>8.422608062786999</v>
+      </c>
+      <c r="R25">
+        <v>50.53564837672199</v>
+      </c>
+      <c r="S25">
+        <v>0.003474242631295662</v>
+      </c>
+      <c r="T25">
+        <v>0.002666645180501973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.338819</v>
+      </c>
+      <c r="H26">
+        <v>2.677638</v>
+      </c>
+      <c r="I26">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J26">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11.755292</v>
+      </c>
+      <c r="N26">
+        <v>23.510584</v>
+      </c>
+      <c r="O26">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="P26">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="Q26">
+        <v>15.738208280148</v>
+      </c>
+      <c r="R26">
+        <v>62.952833120592</v>
+      </c>
+      <c r="S26">
+        <v>0.00649185546086158</v>
+      </c>
+      <c r="T26">
+        <v>0.003321870292205415</v>
       </c>
     </row>
   </sheetData>
